--- a/Medium Instances 1,5/Medium3,1.5.xlsx
+++ b/Medium Instances 1,5/Medium3,1.5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobni\SamkjøringKode\samkjoring2022\Medium Instances 1,5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances 1,5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBE2E39-A044-4192-ACE7-267F1A622EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24196C79-D619-424C-ADEF-DDBA288122DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1181,50 +1181,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Tofterøy</v>
+        <v>Ebbesvika</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.0525099999999998</v>
+        <v>5.1401279999999998</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.185890000000001</v>
+        <v>60.336067999999997</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="0">C2*111.021</f>
-        <v>560.93471270999999</v>
+        <v>570.662150688</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6681.8976936899999</v>
+        <v>6698.5706054279999</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G6" ca="1" si="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="2">H2*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1255,50 +1255,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B26" ca="1" si="3">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Hammersland</v>
+        <v>Tofterøy</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C26" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.0687990000000003</v>
+        <v>5.0525099999999998</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D26" ca="1" si="5">_xlfn.XLOOKUP(B3,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.259569999999997</v>
+        <v>60.185890000000001</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>562.743133779</v>
+        <v>560.93471270999999</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.07772097</v>
+        <v>6681.8976936899999</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="6">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>10.5</v>
+        <v>72</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1331,23 +1331,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bildøyna</v>
+        <v>Vågo</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.388821</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1404,50 +1404,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knappskog</v>
+        <v>Vorland</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H26" ca="1" si="7">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I19" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>31.5</v>
+        <v>64.5</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1477,23 +1477,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hammersland</v>
+        <v>Skogsvåg</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0687990000000003</v>
+        <v>5.0971859999999998</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.259569999999997</v>
+        <v>60.25994</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>562.743133779</v>
+        <v>565.89468690599995</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.07772097</v>
+        <v>6690.1187987399999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1550,50 +1550,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Landro</v>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9672090000000004</v>
+        <v>5.1544819999999998</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.423364999999997</v>
+        <v>60.381360999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.464510389</v>
+        <v>572.25574612200001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6708.2624056649993</v>
+        <v>6703.5990795810003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1611,23 +1611,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>37.5</v>
+        <v>22.5</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1672,50 +1672,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hellesøy</v>
+        <v>Arefjord</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7908670000000004</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.661020999999998</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>531.88684520700008</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6734.6472124410002</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>93</v>
+        <v>34.5</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1733,23 +1733,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Hammersland</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0687990000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.259569999999997</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>562.743133779</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.07772097</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>49.5</v>
+        <v>55.5</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1794,50 +1794,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Landro</v>
+        <v>Solsvik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9672090000000004</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.423364999999997</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.464510389</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6708.2624056649993</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1856,50 +1856,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hjelteryggen</v>
+        <v>Kleppe</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1544819999999998</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.381360999999998</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.25574612200001</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.5990795810003</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>33</v>
+        <v>31.5</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1920,50 +1920,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kleppe</v>
+        <v>Solsvik</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1359649999999997</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.187809999999999</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.19997026499993</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6682.1108540100004</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>25.5</v>
+        <v>60</v>
       </c>
       <c r="W13" t="s">
         <v>42</v>
@@ -1981,43 +1981,43 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Landro</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9672090000000004</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.423364999999997</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>551.464510389</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6708.2624056649993</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
@@ -2042,23 +2042,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>31.5</v>
+        <v>45</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2103,43 +2103,43 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knarrevik</v>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1544819999999998</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.381360999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.25574612200001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.5990795810003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
@@ -2164,50 +2164,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Rongøy</v>
+        <v>Kleppe</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9155160000000002</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.507615999999999</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>545.72550183600003</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6717.6160359360001</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>55.5</v>
+        <v>37.5</v>
       </c>
       <c r="W17" t="s">
         <v>48</v>
@@ -2225,23 +2225,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hjelteryggen</v>
+        <v>Landro</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1544819999999998</v>
+        <v>4.9672090000000004</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.381360999999998</v>
+        <v>60.423364999999997</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>572.25574612200001</v>
+        <v>551.464510389</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.5990795810003</v>
+        <v>6708.2624056649993</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>21</v>
+        <v>43.5</v>
       </c>
       <c r="W18" t="s">
         <v>49</v>
@@ -2286,50 +2286,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ebbesvika</v>
+        <v>Hellesøy</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1401279999999998</v>
+        <v>4.7908670000000004</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.336067999999997</v>
+        <v>60.661020999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>570.662150688</v>
+        <v>531.88684520700008</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6698.5706054279999</v>
+        <v>6734.6472124410002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>40.5</v>
+        <v>97.5</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2360,50 +2360,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Blomøy</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8927480000000001</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.538108000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>543.19777570799999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6721.0012882680003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="12">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>78</v>
+        <v>49.5</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2436,50 +2436,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>16.5</v>
+        <v>28.5</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2532,30 +2532,30 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2589,50 +2589,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vorland</v>
+        <v>Solsvik</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0677450000000004</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.227445000000003</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>562.62611764500002</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6686.5111713450005</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>64.5</v>
+        <v>54</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2666,50 +2666,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Foldnes</v>
+        <v>Tofterøy</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0525099999999998</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.185890000000001</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.93628592800007</v>
+        <v>560.93471270999999</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6681.8976936899999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2763,30 +2763,30 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="15">H25*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="16">I25*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2822,23 +2822,23 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>39</v>
+        <v>40.5</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -3269,18 +3269,20 @@
       <c r="R40" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="S40" s="41"/>
+      <c r="S40" s="41">
+        <v>30</v>
+      </c>
       <c r="T40" s="42">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="U40" s="43">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="V40" s="44">
         <f t="shared" si="19"/>
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
@@ -3892,50 +3894,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -3953,50 +3955,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -4014,50 +4016,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -4075,50 +4077,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4136,50 +4138,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -4198,50 +4200,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -4262,50 +4264,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4314,23 +4316,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4357,7 +4359,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4366,50 +4368,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4418,23 +4420,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4461,7 +4463,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4470,50 +4472,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4522,23 +4524,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4565,7 +4567,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4574,50 +4576,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -5830,50 +5832,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -5891,50 +5893,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -5952,50 +5954,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -6013,50 +6015,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -6074,50 +6076,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6136,50 +6138,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6200,23 +6202,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6243,7 +6245,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6252,50 +6254,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6304,50 +6306,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6356,50 +6358,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -7500,50 +7502,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -7570,50 +7572,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -7640,23 +7642,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7683,7 +7685,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -7701,23 +7703,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7744,7 +7746,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -7762,23 +7764,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7805,7 +7807,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -7823,50 +7825,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -7884,50 +7886,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -7946,50 +7948,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8010,50 +8012,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9103,50 +9105,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -9173,50 +9175,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -9243,50 +9245,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -9313,50 +9315,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -9374,23 +9376,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -9417,7 +9419,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -9435,50 +9437,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -9516,30 +9518,30 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -9557,23 +9559,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -9600,7 +9602,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10685,50 +10687,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -10755,50 +10757,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -10825,23 +10827,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10868,7 +10870,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/Medium Instances 1,5/Medium3,1.5.xlsx
+++ b/Medium Instances 1,5/Medium3,1.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances 1,5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24196C79-D619-424C-ADEF-DDBA288122DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DBBAF8-F181-42DA-A47B-26616C0969F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1845" windowWidth="19755" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium3" sheetId="12" r:id="rId1"/>
@@ -1181,50 +1181,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Ebbesvika</v>
+        <v>Hammersland</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.1401279999999998</v>
+        <v>5.0687990000000003</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.336067999999997</v>
+        <v>60.259569999999997</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="0">C2*111.021</f>
-        <v>570.662150688</v>
+        <v>562.743133779</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6698.5706054279999</v>
+        <v>6690.07772097</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G6" ca="1" si="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="2">H2*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>36</v>
+        <v>55.5</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1255,23 +1255,23 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B26" ca="1" si="3">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Tofterøy</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C26" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.0525099999999998</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D26" ca="1" si="5">_xlfn.XLOOKUP(B3,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.185890000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>560.93471270999999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6681.8976936899999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>72</v>
+        <v>22.5</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1331,23 +1331,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vågo</v>
+        <v>Knappskog</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1245659999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388821</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.93444188599995</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4272962410005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>42</v>
+        <v>40.5</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1424,30 +1424,30 @@
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H26" ca="1" si="7">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I19" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>64.5</v>
+        <v>54</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1477,50 +1477,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Skogsvåg</v>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0971859999999998</v>
+        <v>5.1544819999999998</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.25994</v>
+        <v>60.381360999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>565.89468690599995</v>
+        <v>572.25574612200001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.1187987399999</v>
+        <v>6703.5990795810003</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>49.5</v>
+        <v>27</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1550,50 +1550,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hjelteryggen</v>
+        <v>Rongøy</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1544819999999998</v>
+        <v>4.9155160000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.381360999999998</v>
+        <v>60.507615999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.25574612200001</v>
+        <v>545.72550183600003</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.5990795810003</v>
+        <v>6717.6160359360001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>27</v>
+        <v>55.5</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1611,23 +1611,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knarrevik</v>
+        <v>Skogsvåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0971859999999998</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.25994</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>565.89468690599995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.1187987399999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>22.5</v>
+        <v>55.5</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1672,50 +1672,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arefjord</v>
+        <v>Blomøy</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1424630000000002</v>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.358854999999998</v>
+        <v>60.538108000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.92138472300007</v>
+        <v>543.19777570799999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6701.1004409549996</v>
+        <v>6721.0012882680003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>34.5</v>
+        <v>75</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1733,50 +1733,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hammersland</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0687990000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.259569999999997</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>562.743133779</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.07772097</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>55.5</v>
+        <v>22.5</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1794,23 +1794,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.37569358899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6709.1102730419998</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>48</v>
+        <v>22.5</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1856,50 +1856,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kleppe</v>
+        <v>Solsvik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1359649999999997</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.187809999999999</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.19997026499993</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6682.1108540100004</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>31.5</v>
+        <v>48</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1920,50 +1920,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.37569358899998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6709.1102730419998</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>60</v>
+        <v>31.5</v>
       </c>
       <c r="W13" t="s">
         <v>42</v>
@@ -1981,50 +1981,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Landro</v>
+        <v>Blomøy</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9672090000000004</v>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.423364999999997</v>
+        <v>60.538108000000001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.464510389</v>
+        <v>543.19777570799999</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6708.2624056649993</v>
+        <v>6721.0012882680003</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>49.5</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s">
         <v>44</v>
@@ -2042,50 +2042,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Vorland</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2103,23 +2103,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hjelteryggen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1544819999999998</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.381360999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.25574612200001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.5990795810003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>27</v>
+        <v>37.5</v>
       </c>
       <c r="W16" t="s">
         <v>47</v>
@@ -2225,50 +2225,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Landro</v>
+        <v>Blomøy</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9672090000000004</v>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.423364999999997</v>
+        <v>60.538108000000001</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>551.464510389</v>
+        <v>543.19777570799999</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6708.2624056649993</v>
+        <v>6721.0012882680003</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>43.5</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s">
         <v>49</v>
@@ -2286,50 +2286,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hellesøy</v>
+        <v>Hammersland</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7908670000000004</v>
+        <v>5.0687990000000003</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.661020999999998</v>
+        <v>60.259569999999997</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>531.88684520700008</v>
+        <v>562.743133779</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6734.6472124410002</v>
+        <v>6690.07772097</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>97.5</v>
+        <v>57</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2360,50 +2360,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Arefjord</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="12">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>49.5</v>
+        <v>22.5</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2436,50 +2436,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Straume</v>
+        <v>Hammersland</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0687990000000003</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.259569999999997</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>562.743133779</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6690.07772097</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>28.5</v>
+        <v>57</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2512,50 +2512,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vorland</v>
+        <v>Straume</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0677450000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.227445000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>562.62611764500002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6686.5111713450005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2589,50 +2589,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Landro</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>4.9672090000000004</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.423364999999997</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>551.37569358899998</v>
+        <v>551.464510389</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6709.1102730419998</v>
+        <v>6708.2624056649993</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>54</v>
+        <v>55.5</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2666,50 +2666,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Tofterøy</v>
+        <v>Kleppe</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0525099999999998</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.185890000000001</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>560.93471270999999</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6681.8976936899999</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>78</v>
+        <v>25.5</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2743,50 +2743,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Tofterøy</v>
+        <v>Hammersland</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0525099999999998</v>
+        <v>5.0687990000000003</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.185890000000001</v>
+        <v>60.259569999999997</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="13">C25*111.021</f>
-        <v>560.93471270999999</v>
+        <v>562.743133779</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="14">D25*111.021</f>
-        <v>6681.8976936899999</v>
+        <v>6690.07772097</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="15">H25*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="16">I25*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2822,23 +2822,23 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Foldnes</v>
+        <v>Landro</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9672090000000004</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.423364999999997</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>566.93628592800007</v>
+        <v>551.464510389</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6703.0025637480003</v>
+        <v>6708.2624056649993</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>40.5</v>
+        <v>54</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -3894,23 +3894,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -3955,50 +3955,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -4036,30 +4036,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -4077,50 +4077,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4138,50 +4138,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -4200,23 +4200,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -4264,23 +4264,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4316,50 +4316,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4368,23 +4368,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4420,50 +4420,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4472,50 +4472,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4524,50 +4524,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4576,23 +4576,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -5852,30 +5852,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -5893,50 +5893,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -5954,50 +5954,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -6015,23 +6015,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -6076,50 +6076,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6138,50 +6138,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6202,23 +6202,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6306,23 +6306,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6358,50 +6358,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -7502,50 +7502,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -7572,50 +7572,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -7642,50 +7642,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -7703,23 +7703,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -7784,30 +7784,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -7886,50 +7886,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -7948,50 +7948,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -9105,23 +9105,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -9175,50 +9175,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -9245,50 +9245,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -9315,23 +9315,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -9376,50 +9376,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -9437,50 +9437,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -9498,50 +9498,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -9559,50 +9559,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10687,50 +10687,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -10777,30 +10777,30 @@
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -10827,23 +10827,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10870,7 +10870,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
